--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>382.5269060000001</v>
+        <v>2.624526</v>
       </c>
       <c r="H2">
-        <v>1147.580718</v>
+        <v>7.873578</v>
       </c>
       <c r="I2">
-        <v>0.8599069022589805</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="J2">
-        <v>0.8599069022589803</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.19179533333333</v>
+        <v>16.05260533333333</v>
       </c>
       <c r="N2">
-        <v>219.575386</v>
+        <v>48.157816</v>
       </c>
       <c r="O2">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="P2">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="Q2">
-        <v>27997.83101344524</v>
+        <v>42.13048006507199</v>
       </c>
       <c r="R2">
-        <v>251980.4791210072</v>
+        <v>379.174320585648</v>
       </c>
       <c r="S2">
-        <v>0.3830652325621158</v>
+        <v>0.01129380744092503</v>
       </c>
       <c r="T2">
-        <v>0.3830652325621157</v>
+        <v>0.01129380744092503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>382.5269060000001</v>
+        <v>2.624526</v>
       </c>
       <c r="H3">
-        <v>1147.580718</v>
+        <v>7.873578</v>
       </c>
       <c r="I3">
-        <v>0.8599069022589805</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="J3">
-        <v>0.8599069022589803</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.672773</v>
       </c>
       <c r="O3">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="P3">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="Q3">
-        <v>2763.47293337678</v>
+        <v>18.960252076866</v>
       </c>
       <c r="R3">
-        <v>24871.25640039102</v>
+        <v>170.642268691794</v>
       </c>
       <c r="S3">
-        <v>0.03780972895345813</v>
+        <v>0.005082625112668711</v>
       </c>
       <c r="T3">
-        <v>0.03780972895345812</v>
+        <v>0.005082625112668711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>382.5269060000001</v>
+        <v>2.624526</v>
       </c>
       <c r="H4">
-        <v>1147.580718</v>
+        <v>7.873578</v>
       </c>
       <c r="I4">
-        <v>0.8599069022589805</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="J4">
-        <v>0.8599069022589803</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.794787</v>
+        <v>2.098187333333334</v>
       </c>
       <c r="N4">
-        <v>8.384361</v>
+        <v>6.294562000000001</v>
       </c>
       <c r="O4">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="P4">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="Q4">
-        <v>1069.081224039022</v>
+        <v>5.506747209204001</v>
       </c>
       <c r="R4">
-        <v>9621.731016351199</v>
+        <v>49.56072488283601</v>
       </c>
       <c r="S4">
-        <v>0.01462712763419546</v>
+        <v>0.00147617930084213</v>
       </c>
       <c r="T4">
-        <v>0.01462712763419545</v>
+        <v>0.00147617930084213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>382.5269060000001</v>
+        <v>2.624526</v>
       </c>
       <c r="H5">
-        <v>1147.580718</v>
+        <v>7.873578</v>
       </c>
       <c r="I5">
-        <v>0.8599069022589805</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="J5">
-        <v>0.8599069022589803</v>
+        <v>0.06442870872595916</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>81.09049733333333</v>
+        <v>66.20156266666667</v>
       </c>
       <c r="N5">
-        <v>243.271492</v>
+        <v>198.604688</v>
       </c>
       <c r="O5">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378943</v>
       </c>
       <c r="P5">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378942</v>
       </c>
       <c r="Q5">
-        <v>31019.29705092125</v>
+        <v>173.747722459296</v>
       </c>
       <c r="R5">
-        <v>279173.6734582913</v>
+        <v>1563.729502133664</v>
       </c>
       <c r="S5">
-        <v>0.4244048131092111</v>
+        <v>0.04657609687152329</v>
       </c>
       <c r="T5">
-        <v>0.424404813109211</v>
+        <v>0.04657609687152328</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.478947</v>
       </c>
       <c r="I6">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="J6">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>73.19179533333333</v>
+        <v>16.05260533333333</v>
       </c>
       <c r="N6">
-        <v>219.575386</v>
+        <v>48.157816</v>
       </c>
       <c r="O6">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="P6">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="Q6">
-        <v>36.08226204428244</v>
+        <v>7.913650833305778</v>
       </c>
       <c r="R6">
-        <v>324.740358398542</v>
+        <v>71.222857499752</v>
       </c>
       <c r="S6">
-        <v>0.0004936761027924865</v>
+        <v>0.002121391651080836</v>
       </c>
       <c r="T6">
-        <v>0.0004936761027924864</v>
+        <v>0.002121391651080836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.478947</v>
       </c>
       <c r="I7">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="J7">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.672773</v>
       </c>
       <c r="O7">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="P7">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="Q7">
         <v>3.561431401114556</v>
@@ -883,10 +883,10 @@
         <v>32.052882610031</v>
       </c>
       <c r="S7">
-        <v>4.872736560438621E-05</v>
+        <v>0.0009547035874295082</v>
       </c>
       <c r="T7">
-        <v>4.872736560438621E-05</v>
+        <v>0.0009547035874295082</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.478947</v>
       </c>
       <c r="I8">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="J8">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.794787</v>
+        <v>2.098187333333334</v>
       </c>
       <c r="N8">
-        <v>8.384361</v>
+        <v>6.294562000000001</v>
       </c>
       <c r="O8">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="P8">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="Q8">
-        <v>1.377780616429667</v>
+        <v>1.034369287357111</v>
       </c>
       <c r="R8">
-        <v>12.400025547867</v>
+        <v>9.309323586214001</v>
       </c>
       <c r="S8">
-        <v>1.885074068768944E-05</v>
+        <v>0.0002772806655935288</v>
       </c>
       <c r="T8">
-        <v>1.885074068768944E-05</v>
+        <v>0.0002772806655935288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.478947</v>
       </c>
       <c r="I9">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="J9">
-        <v>0.001108206780950124</v>
+        <v>0.01210207677934112</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>81.09049733333333</v>
+        <v>66.20156266666667</v>
       </c>
       <c r="N9">
-        <v>243.271492</v>
+        <v>198.604688</v>
       </c>
       <c r="O9">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378943</v>
       </c>
       <c r="P9">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378942</v>
       </c>
       <c r="Q9">
-        <v>39.97618258654711</v>
+        <v>32.63620083372623</v>
       </c>
       <c r="R9">
-        <v>359.785643278924</v>
+        <v>293.725807503536</v>
       </c>
       <c r="S9">
-        <v>0.0005469525718655621</v>
+        <v>0.008748700875237249</v>
       </c>
       <c r="T9">
-        <v>0.000546952571865562</v>
+        <v>0.008748700875237249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>0.419061</v>
       </c>
       <c r="I10">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="J10">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>73.19179533333333</v>
+        <v>16.05260533333333</v>
       </c>
       <c r="N10">
-        <v>219.575386</v>
+        <v>48.157816</v>
       </c>
       <c r="O10">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="P10">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="Q10">
-        <v>10.22394231472733</v>
+        <v>2.242340281197333</v>
       </c>
       <c r="R10">
-        <v>92.01548083254599</v>
+        <v>20.181062530776</v>
       </c>
       <c r="S10">
-        <v>0.0001398835802177645</v>
+        <v>0.0006010982859382968</v>
       </c>
       <c r="T10">
-        <v>0.0001398835802177645</v>
+        <v>0.0006010982859382968</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>0.419061</v>
       </c>
       <c r="I11">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="J11">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.672773</v>
       </c>
       <c r="O11">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="P11">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="Q11">
-        <v>1.009134880683666</v>
+        <v>1.009134880683667</v>
       </c>
       <c r="R11">
-        <v>9.082213926152999</v>
+        <v>9.082213926153001</v>
       </c>
       <c r="S11">
-        <v>1.38069441011339E-05</v>
+        <v>0.0002705161442917137</v>
       </c>
       <c r="T11">
-        <v>1.38069441011339E-05</v>
+        <v>0.0002705161442917137</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,10 +1163,10 @@
         <v>0.419061</v>
       </c>
       <c r="I12">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="J12">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.794787</v>
+        <v>2.098187333333334</v>
       </c>
       <c r="N12">
-        <v>8.384361</v>
+        <v>6.294562000000001</v>
       </c>
       <c r="O12">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="P12">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="Q12">
-        <v>0.3903954116689999</v>
+        <v>0.2930894940313334</v>
       </c>
       <c r="R12">
-        <v>3.513558705021</v>
+        <v>2.637805446282</v>
       </c>
       <c r="S12">
-        <v>5.341374804725135E-06</v>
+        <v>7.856773299130381E-05</v>
       </c>
       <c r="T12">
-        <v>5.341374804725135E-06</v>
+        <v>7.856773299130381E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,10 +1225,10 @@
         <v>0.419061</v>
       </c>
       <c r="I13">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="J13">
-        <v>0.0003140114161168317</v>
+        <v>0.003429134645952472</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>81.09049733333333</v>
+        <v>66.20156266666667</v>
       </c>
       <c r="N13">
-        <v>243.271492</v>
+        <v>198.604688</v>
       </c>
       <c r="O13">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378943</v>
       </c>
       <c r="P13">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378942</v>
       </c>
       <c r="Q13">
-        <v>11.32728830100133</v>
+        <v>9.247497684218668</v>
       </c>
       <c r="R13">
-        <v>101.945594709012</v>
+        <v>83.22747915796801</v>
       </c>
       <c r="S13">
-        <v>0.0001549795169932082</v>
+        <v>0.002478952482731157</v>
       </c>
       <c r="T13">
-        <v>0.0001549795169932082</v>
+        <v>0.002478952482731157</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>61.68730866666667</v>
+        <v>37.47815466666666</v>
       </c>
       <c r="H14">
-        <v>185.061926</v>
+        <v>112.434464</v>
       </c>
       <c r="I14">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="J14">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.19179533333333</v>
+        <v>16.05260533333333</v>
       </c>
       <c r="N14">
-        <v>219.575386</v>
+        <v>48.157816</v>
       </c>
       <c r="O14">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="P14">
-        <v>0.4454729128883617</v>
+        <v>0.1752915379534001</v>
       </c>
       <c r="Q14">
-        <v>4515.004870594827</v>
+        <v>601.6220254856248</v>
       </c>
       <c r="R14">
-        <v>40635.04383535344</v>
+        <v>5414.598229370623</v>
       </c>
       <c r="S14">
-        <v>0.06177412064323571</v>
+        <v>0.1612752405754559</v>
       </c>
       <c r="T14">
-        <v>0.0617741206432357</v>
+        <v>0.1612752405754559</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>61.68730866666667</v>
+        <v>37.47815466666666</v>
       </c>
       <c r="H15">
-        <v>185.061926</v>
+        <v>112.434464</v>
       </c>
       <c r="I15">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="J15">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.672773</v>
       </c>
       <c r="O15">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="P15">
-        <v>0.04396956095378668</v>
+        <v>0.07888758308485012</v>
       </c>
       <c r="Q15">
-        <v>445.6450125711998</v>
+        <v>270.7518461831857</v>
       </c>
       <c r="R15">
-        <v>4010.805113140798</v>
+        <v>2436.766615648672</v>
       </c>
       <c r="S15">
-        <v>0.006097297690623035</v>
+        <v>0.07257973824046018</v>
       </c>
       <c r="T15">
-        <v>0.006097297690623034</v>
+        <v>0.07257973824046018</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>61.68730866666667</v>
+        <v>37.47815466666666</v>
       </c>
       <c r="H16">
-        <v>185.061926</v>
+        <v>112.434464</v>
       </c>
       <c r="I16">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="J16">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.794787</v>
+        <v>2.098187333333334</v>
       </c>
       <c r="N16">
-        <v>8.384361</v>
+        <v>6.294562000000001</v>
       </c>
       <c r="O16">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="P16">
-        <v>0.01701012934745599</v>
+        <v>0.02291182502385553</v>
       </c>
       <c r="Q16">
-        <v>172.4028883265873</v>
+        <v>78.63618939830755</v>
       </c>
       <c r="R16">
-        <v>1551.625994939286</v>
+        <v>707.7257045847681</v>
       </c>
       <c r="S16">
-        <v>0.002358809597768124</v>
+        <v>0.02107979732442856</v>
       </c>
       <c r="T16">
-        <v>0.002358809597768123</v>
+        <v>0.02107979732442856</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.68730866666667</v>
+        <v>37.47815466666666</v>
       </c>
       <c r="H17">
-        <v>185.061926</v>
+        <v>112.434464</v>
       </c>
       <c r="I17">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="J17">
-        <v>0.1386708795439526</v>
+        <v>0.9200400798487472</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>81.09049733333333</v>
+        <v>66.20156266666667</v>
       </c>
       <c r="N17">
-        <v>243.271492</v>
+        <v>198.604688</v>
       </c>
       <c r="O17">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378943</v>
       </c>
       <c r="P17">
-        <v>0.4935473968103956</v>
+        <v>0.7229090539378942</v>
       </c>
       <c r="Q17">
-        <v>5002.254538934844</v>
+        <v>2481.112404796359</v>
       </c>
       <c r="R17">
-        <v>45020.2908504136</v>
+        <v>22330.01164316723</v>
       </c>
       <c r="S17">
-        <v>0.06844065161232576</v>
+        <v>0.6651053037084026</v>
       </c>
       <c r="T17">
-        <v>0.06844065161232575</v>
+        <v>0.6651053037084025</v>
       </c>
     </row>
   </sheetData>
